--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="173">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -506,6 +506,48 @@
   </si>
   <si>
     <t>DEPT OF EDUCATION EMPLOYMENT &amp;-test</t>
+  </si>
+  <si>
+    <t>3075344822</t>
+  </si>
+  <si>
+    <t>Platform - VERTICA</t>
+  </si>
+  <si>
+    <t>rkjhog8169019762</t>
+  </si>
+  <si>
+    <t>hdnkiz6953668333</t>
+  </si>
+  <si>
+    <t>1734137311</t>
+  </si>
+  <si>
+    <t>gajkhg9471563903</t>
+  </si>
+  <si>
+    <t>jdtpji5541533769</t>
+  </si>
+  <si>
+    <t>8653275578</t>
+  </si>
+  <si>
+    <t>cbfmwu3528917429</t>
+  </si>
+  <si>
+    <t>mhiqlo8087266881</t>
+  </si>
+  <si>
+    <t>4629775193</t>
+  </si>
+  <si>
+    <t>eaqwru3084437445</t>
+  </si>
+  <si>
+    <t>myplrj5641162086</t>
+  </si>
+  <si>
+    <t>9888887443</t>
   </si>
 </sst>
 </file>
@@ -515,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -558,6 +600,26 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -621,7 +683,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -679,6 +741,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -964,80 +1029,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1290,7 +1355,7 @@
         <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>110</v>
@@ -1311,7 +1376,7 @@
         <v>111</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>93</v>
@@ -1428,7 +1493,7 @@
         <v>153</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>104</v>
@@ -1509,7 +1574,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>126</v>
@@ -1530,7 +1595,7 @@
         <v>127</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>93</v>
@@ -1644,8 +1709,8 @@
       <c r="AW3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="AX3" s="15">
-        <v>14978194914</v>
+      <c r="AX3" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>139</v>
@@ -1726,7 +1791,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>110</v>
@@ -1747,7 +1812,7 @@
         <v>111</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>93</v>
@@ -1848,10 +1913,10 @@
       <c r="AR4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="20">
         <v>42036</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4" s="18">
         <v>42036</v>
       </c>
       <c r="AV4" s="1" t="s">
@@ -1861,7 +1926,7 @@
         <v>156</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>104</v>
@@ -1927,6 +1992,218 @@
         <v>107</v>
       </c>
       <c r="BU4" s="1"/>
+    </row>
+    <row r="5" spans="1:79">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2141677402</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>-16899.755499999999</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>-16899.755499999999</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>-20736</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>-20736</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>42036</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>42036</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL5" s="13">
+        <v>-20736</v>
+      </c>
+      <c r="BM5" s="13">
+        <v>-16899.755499999999</v>
+      </c>
+      <c r="BN5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:79">
       <c r="B9" s="14"/>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>9888887443</t>
+  </si>
+  <si>
+    <t>gurice2092582465</t>
+  </si>
+  <si>
+    <t>iacuac1476297692</t>
+  </si>
+  <si>
+    <t>0434693242</t>
+  </si>
+  <si>
+    <t>jmhpdu5578077939</t>
+  </si>
+  <si>
+    <t>wuahzz7254602140</t>
+  </si>
+  <si>
+    <t>8674395999</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -600,6 +618,16 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1355,7 +1383,7 @@
         <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>110</v>
@@ -1376,7 +1404,7 @@
         <v>111</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>93</v>
@@ -1493,7 +1521,7 @@
         <v>153</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>104</v>
@@ -1574,7 +1602,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>126</v>
@@ -1595,7 +1623,7 @@
         <v>127</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>93</v>
@@ -1710,7 +1738,7 @@
         <v>155</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>139</v>
@@ -1791,7 +1819,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>110</v>
@@ -1812,7 +1840,7 @@
         <v>111</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>93</v>
@@ -1926,7 +1954,7 @@
         <v>156</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>104</v>
@@ -2004,7 +2032,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>110</v>
@@ -2025,7 +2053,7 @@
         <v>111</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>93</v>
@@ -2139,7 +2167,7 @@
         <v>156</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>104</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SP_AU_ITOM_IM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="191">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -566,6 +566,42 @@
   </si>
   <si>
     <t>8674395999</t>
+  </si>
+  <si>
+    <t>rrbguw7188602751</t>
+  </si>
+  <si>
+    <t>nywpdw5223218249</t>
+  </si>
+  <si>
+    <t>2885579443</t>
+  </si>
+  <si>
+    <t>dsmlvp7382618109</t>
+  </si>
+  <si>
+    <t>czfyvy2902748278</t>
+  </si>
+  <si>
+    <t>0901868850</t>
+  </si>
+  <si>
+    <t>bxrlgx8681902328</t>
+  </si>
+  <si>
+    <t>bqfflq0749972673</t>
+  </si>
+  <si>
+    <t>3766509088</t>
+  </si>
+  <si>
+    <t>jtwjyj7628280028</t>
+  </si>
+  <si>
+    <t>iqyppr6808943924</t>
+  </si>
+  <si>
+    <t>6194932347</t>
   </si>
 </sst>
 </file>
@@ -575,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -618,6 +654,26 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1383,7 +1439,7 @@
         <v>108</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>110</v>
@@ -1404,7 +1460,7 @@
         <v>111</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>93</v>
@@ -1521,7 +1577,7 @@
         <v>153</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>104</v>
@@ -1602,7 +1658,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>126</v>
@@ -1623,7 +1679,7 @@
         <v>127</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>93</v>
@@ -1738,7 +1794,7 @@
         <v>155</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>139</v>
@@ -1819,7 +1875,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>110</v>
@@ -1840,7 +1896,7 @@
         <v>111</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>93</v>
@@ -1954,7 +2010,7 @@
         <v>156</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>104</v>
@@ -2032,7 +2088,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>110</v>
@@ -2053,7 +2109,7 @@
         <v>111</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>93</v>
@@ -2167,7 +2223,7 @@
         <v>156</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>104</v>
